--- a/src/my_rag/evaluations/results/rag_evaluations_embedder_sentence-transformers_all-MiniLM-L6-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_embedder_sentence-transformers_all-MiniLM-L6-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
@@ -479,20 +479,15 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>Based on the context provided, long non-coding RNAs (lncRNAs) are generally spliced, but with some key differences compared to protein-coding genes:
-1. Most lncRNAs are spliced (98% according to the passage).
-2. However, lncRNAs tend to have fewer exons than protein-coding genes:
-   - 42% of lncRNA transcripts have only two exons
-   - Compared to 6% of protein-coding genes having only two exons
-3. LncRNA exons are slightly longer than protein-coding exons on average.
-4. LncRNA introns are longer than protein-coding introns on average.
-5. Overall, lncRNA transcripts are shorter than protein-coding transcripts due to having fewer exons.
-6. Over 25% of lncRNA genes show evidence of alternative splicing.
-7. The vast majority of lncRNA introns have canonical splice sites (GT/AG), similar to protein-coding genes.
-8. LncRNAs tend to be spliced later in the process compared to mRNAs:
-   - They show lower splicing completion in chromatin-associated RNA fractions
-   - The difference persists even in nuclear polyA+ RNA fractions
-9. Some lncRNAs may remain predominantly unspliced (e.g. AIRN and KCNQ1OT1 are mentioned as examples).
-In summary, while most lncRNAs undergo splicing, they tend to have simpler splicing patterns (fewer exons), may be spliced later in the process, and in some cases may remain unspliced. The splicing of lncRNAs appears to be less efficient overall compared to mRNAs.</t>
+1. Most lncRNAs are spliced (98% according to the text).
+2. However, lncRNAs tend to have fewer exons than protein-coding genes. 42% of lncRNA transcripts have only two exons, compared to 6% of protein-coding genes.
+3. LncRNA introns are longer on average than those of protein-coding genes.
+4. Over 25% of lncRNA genes show evidence of alternative splicing, with at least two different transcript isoforms.
+5. LncRNAs use the same canonical splice sites (GT/AG) as protein-coding genes.
+6. Some lncRNAs contain U12 introns, similar to protein-coding genes.
+7. LncRNAs tend to be spliced later and less efficiently than mRNAs. Their splicing completion scores (coSI values) are lower in chromatin-associated RNA fractions compared to protein-coding genes.
+8. Some lncRNAs may remain predominantly unspliced, like AIRN and KCNQ1OT1.
+In summary, while most lncRNAs undergo splicing, they tend to have simpler splicing patterns, are spliced less efficiently, and in some cases may remain unspliced compared to protein-coding genes. The splicing of lncRNAs appears to be a more variable and potentially regulated process.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -524,7 +519,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Based on the provided context, there is no information about Denosumab (Prolia) or its FDA approval status. The context appears to be about prostate cancer, imaging agents, and some clinical trial details, but does not mention Denosumab or its approval status. I do not have enough relevant information to answer this question accurately.</t>
+          <t>Based on the given context, there is no information provided about Denosumab (Prolia) or its FDA approval status. The context appears to be discussing various topics related to prostate cancer research and treatments, but does not mention Denosumab or Prolia specifically. Therefore, I do not have enough information from the given context to answer whether Denosumab (Prolia) has been approved by the FDA.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -557,13 +552,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder rather than a simple Mendelian disorder. Key evidence for this includes:
-1. The context states that HSCR has a "complex genetic etiology" with multiple genes involved.
-2. It mentions that HSCR has "differential contributions of its rare and common, coding and noncoding mutations to the multifactorial nature of this pathology."
-3. The study analyzed both rare variants (RVs) and common variants (CVs) in the RET gene, indicating multiple genetic factors are involved.
-4. It states that in 91.66% of cases with both RVs and CVs, they were found on different alleles, suggesting a synergistic effect of multiple genetic factors.
-5. The disease shows variable expressivity and incomplete penetrance, with sex-dependent effects, which is more characteristic of multifactorial disorders.
-6. Environmental factors are not ruled out, which is consistent with a multifactorial etiology.
-While certain genes like RET play a major role, the overall evidence points to HSCR being a multifactorial disorder with both genetic and potential environmental components, rather than following simple Mendelian inheritance patterns. The complex interplay of multiple genetic variants appears to contribute to disease risk and manifestation.</t>
+1. The context states that HSCR "has a complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
+2. It mentions that HSCR has a "multifactorial nature".
+3. The study analyzes both rare variants (RVs) and common variants (CVs) in the RET gene, indicating multiple genetic factors are involved.
+4. The authors refer to the "differential contributions of its rare and common, coding and noncoding mutations" in RET to HSCR.
+5. The study found a synergistic effect between RET common variants and rare variants, suggesting multiple genetic factors interact to produce the disease phenotype.
+6. HSCR is described as having variable penetrance and male predominance, which is more characteristic of complex multifactorial disorders than simple Mendelian traits.
+So while certain genes like RET play a major role, HSCR appears to result from a combination of multiple genetic and potentially environmental factors, rather than following a simple Mendelian inheritance pattern. This supports classifying it as a multifactorial disorder.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -595,7 +590,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Based on the given context, I don't have enough information to determine if RANKL is secreted from cells or not. The provided text does not contain any specific information about RANKL or its secretion. The context appears to be discussing various topics related to cancer research and stem cells, but does not mention RANKL secretion.</t>
+          <t>Based on the given context, I do not have enough information to determine whether RANKL is secreted from cells or not. The provided text does not contain any specific information about RANKL or its secretion. To accurately answer this question, we would need additional context or information about RANKL and its biological properties.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -627,14 +622,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Based on the provided context, there is mixed evidence regarding the potential use of trastuzumab (Herceptin) for treating prostate cancer:
+          <t>Based on the context provided, there is mixed evidence regarding the potential use of trastuzumab (Herceptin) for treating prostate cancer:
 Key points:
-1. HER2 is overexpressed in 20-30% of prostate cancers and up to 78% of androgen-independent prostate cancers. Its expression increases as prostate cancer progresses to androgen independence.
-2. HER2 signaling contributes to prostate cancer progression by activating the androgen receptor in low androgen environments, promoting androgen-independent growth.
-3. Preclinical studies in animal models using trastuzumab alone showed limited therapeutic responses against prostate cancer.
-4. Clinical trials using trastuzumab or other HER2-targeting agents as single agents in prostate cancer patients demonstrated no significant antitumor activity, even in hormone therapy-naive patients. 
-5. However, one study found that combining trastuzumab with docetaxel improved responses in prostate cancer xenografts, particularly hormone-independent variants.
-6. Some researchers are exploring using trastuzumab conjugated to radioactive isotopes (e.g. 212Pb-trastuzumab) as a potential therapy for advanced prostate cancer, with promising early results in animal models.
+1. HER2 is overexpressed in 20-30% of prostate cancers and up to 78% of androgen-independent prostate cancers. Increased HER2 expression is associated with more aggressive disease and progression to androgen independence.
+2. Preclinical studies in animal models using trastuzumab alone showed limited therapeutic responses against prostate cancer.
+3. Clinical trials using trastuzumab as a single agent in patients with hormone-refractory prostate cancer demonstrated no significant antitumor activity, even in hormone therapy-naive patients. 
+4. However, one study showed that combining trastuzumab with docetaxel improved response in prostate cancer xenografts compared to docetaxel alone. The combination led to degradation of androgen receptor and HSP90 proteins.
+5. Some researchers are exploring using trastuzumab conjugated to radioactive isotopes like lead-212 as a potential therapy for advanced prostate cancer, with promising early results in animal models.
 In summary, while HER2 appears to play a role in prostate cancer progression, trastuzumab alone has not shown significant efficacy in clinical trials. However, there may be potential in combining trastuzumab with other agents or using it as a vehicle to deliver targeted radiation therapy. More research is needed to determine if and how trastuzumab could be effectively used to treat prostate cancer.</t>
         </is>
       </c>
@@ -675,7 +669,7 @@
 5. Epiregulin (EPR)
 6. Transforming growth factor-α (TGF-α)
 7. Epigen (EPG)
-The passage states that "Seven different ligands are known to bind to EGFR" and then lists these seven molecules. They are all described as sharing a common EGF-like motif and being synthesized as transmembrane proteins that are cleaved to produce soluble growth factors.</t>
+The passage states that "Seven different ligands are known to bind to EGFR" and then lists these 7 molecules specifically. These ligands share a common EGF-like motif and are able to bind to and activate EGFR, though with different binding affinities.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -707,13 +701,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Based on the context provided, orteronel was developed for the treatment of castration-resistant prostate cancer (CRPC). Specifically:
-- The study enrolled patients with CRPC (castration-resistant prostate cancer).
-- The introduction mentions that orteronel is a 17,20-lyase inhibitor being evaluated for treatment of prostate cancer.
-- The patients enrolled all had prostate cancer, with Gleason scores of 7 or higher.
-- The study was evaluating orteronel's effects on testosterone and other hormones relevant to prostate cancer.
-- The conclusion states that the results support further evaluation of orteronel in CRPC patients.
-So orteronel was clearly being developed and studied as a potential treatment for castration-resistant prostate cancer.</t>
+          <t>Based on the context provided, orteronel was developed for the treatment of prostate cancer, specifically castration-resistant prostate cancer (CRPC). Key evidence from the passage:
+1. The study enrolled patients with CRPC (castration-resistant prostate cancer).
+2. The passage mentions that orteronel is a 17,20-lyase inhibitor with potential utility in the treatment of prostate cancer.
+3. The study evaluated orteronel's effects on prostate-specific antigen (PSA) levels, which is a biomarker for prostate cancer.
+4. The introduction discusses prostate cancer incidence and treatment of castration-resistant prostate cancer.
+5. The study focused on Japanese CRPC patients.
+So in summary, orteronel was developed as a potential treatment for castration-resistant prostate cancer.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -745,13 +739,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, Pannexin1 (Panx1) is located in the following places:
-1. At the plasma membrane: The passage states that Panx1 "traffic to the plasma membrane".
-2. In astrocytes and neurons: The context mentions that confocal images of hippocampal sections showed Panx1 localized in "different subcellular compartments in both astrocytes and neurons".
-3. Ubiquitously expressed: The text notes that "Pannexin1 (Panx1) is fairly ubiquitous", suggesting it is found widely throughout different cell types and tissues.
-4. Non-overlapping with Pannexin2: The context indicates that Panx1 localizations were "non-overlapping with Panx2".
-5. In the central nervous system (CNS): The passage refers to examining "endogenous Panx1 and Panx2 patterns in the CNS".
-So in summary, Pannexin1 is primarily localized to the plasma membrane in various cell types, especially in the central nervous system, with a ubiquitous expression pattern that differs from the localization of Pannexin2.</t>
+          <t>Based on the information provided in the context, Pannexin1 (Panx1) is located:
+1. At the plasma membrane. The text states that Panx1 "traffic to the plasma membrane".
+2. In both astrocytes and neurons in the central nervous system. The context mentions that confocal images of hippocampal sections showed Panx1 localization "in both astrocytes and neurons".
+3. In subcellular compartments distinct from where Pannexin2 is located. The text notes that Panx1 and Panx2 "localized at different subcellular compartments" in astrocytes and neurons.
+4. More ubiquitously throughout the body compared to other pannexins. The context states that "Pannexin1 (Panx1) is fairly ubiquitous".
+So in summary, Pannexin1 is primarily located at the plasma membrane of cells, including in neurons and astrocytes in the brain, and has a widespread distribution throughout different cell types in the body.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -784,10 +777,9 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>Based on the context provided, the main acetylcholinesterase inhibitors used for treatment of myasthenia gravis are:
-1. Pyridostigmine bromide - This is the most commonly used acetylcholinesterase inhibitor for myasthenia gravis. 
-2. Neostigmine - This is mentioned as being rarely used compared to pyridostigmine, due to having a poorer pharmacodynamic profile and tolerability.
-The passage states that pyridostigmine is the "first-line option" and "most commonly used drug" for symptomatic treatment of myasthenia gravis. It notes that other acetylcholinesterase inhibitors like neostigmine are "rarely used" in comparison.
-The context also mentions that observational studies have found pyridostigmine to be more effective and have fewer adverse events compared to neostigmine in myasthenia gravis patients.</t>
+1. Pyridostigmine bromide - This is the most commonly used acetylcholinesterase inhibitor for myasthenia gravis. It is considered the first-line symptomatic treatment option.
+2. Neostigmine - This is mentioned as being rarely used compared to pyridostigmine, due to its poorer pharmacodynamic profile and tolerability. 
+The passage states that pyridostigmine is more effective and has fewer adverse events compared to neostigmine, based on observational studies. It notes that most myasthenia gravis patients do not achieve adequate response with acetylcholinesterase inhibitors alone and require further immunosuppression. However, acetylcholinesterase inhibitors, particularly pyridostigmine, remain an important first-line symptomatic treatment for myasthenia gravis.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -819,7 +811,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>I apologize, but the given context does not contain any information about Yamanaka factors. The context primarily discusses topics related to cancer research, including let-7 microRNAs, EGFR in follicular dendritic cell sarcoma, and some other cancer-related proteins. There is no mention of Yamanaka factors or cellular reprogramming in the provided information.</t>
+          <t>I apologize, but I do not have any information about Yamanaka factors in the given context. The provided text does not mention Yamanaka factors or contain any relevant information to answer this question. The context appears to be about various cancer-related topics, including let-7 microRNAs, EGFR in follicular dendritic cell sarcoma, and some other cancer markers. Without additional relevant information, I cannot provide an accurate answer about Yamanaka factors.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -855,11 +847,9 @@
 1. NOTCH1
 2. NOTCH3 
 3. NOTCH4
-The passage mentions these three Notch isoforms specifically:
-"NOTCH1 and NOTCH4 are also expressed in blood vessels and A7R5 smooth muscle cells [53,54,55,56] (data not shown). The ectodomains of these isoforms of NOTCH, like NOTCH3, are composed of a large number of EGF-like domain repeats."
-It also discusses interactions between NOTCH3 and NOTCH1/NOTCH4:
-"In cotransfection assays, we also found that wildtype and mutant NOTCH3 formed stable complexes with NOTCH1 and NOTCH4 ectodomains"
-So the passage explicitly mentions NOTCH1, NOTCH3, and NOTCH4 as different isoforms of the mammalian Notch receptor. While NOTCH2 is not mentioned in this specific context, it is generally known that mammals have four Notch receptor isoforms (NOTCH1-4), though the passage focuses on discussing NOTCH1, 3 and 4.</t>
+Specifically, the passage mentions:
+"NOTCH1 and NOTCH4 are also expressed in blood vessels and A7R5 smooth muscle cells [...] The ectodomains of these isoforms of NOTCH, like NOTCH3, are composed of a large number of EGF-like domain repeats."
+So NOTCH1, NOTCH3, and NOTCH4 are explicitly mentioned as different isoforms of the mammalian Notch receptor that are expressed in blood vessels and smooth muscle cells. The passage focuses primarily on NOTCH3 but indicates these other isoforms exist as well.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -869,12 +859,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['10.1371_journal.pone.0044964.pdf', '10.1371_journal.pone.0044964.pdf', '10.1158_1078-0432.CCR-13-1275.pdf', '10.1371_journal.pone.0044964.pdf', '10.1371_journal.pone.0044964.pdf']</t>
+          <t>['10.1371_journal.pone.0044964.pdf', '10.1371_journal.pone.0044964.pdf', '10.1371_journal.pone.0044964.pdf', '10.1371_journal.pone.0044964.pdf', '10.1371_journal.pone.0044964.pdf']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['ized to initial luciferase content (time 0). The decrease in luciferase\nactivity over time was used to determine the effects of NOTCH3\nmutations on clearance of NOTCH3 ectodomain.\nNotch Signaling Assays\nWe used a cell co-culture system that was similar to previous\nstudies [42,44]. For mRNA expression assays, we transfected\nA7R5 cells transfected (three wells per group) with NOTCH3\ncDNA constructs with ligand expressing L cells expressing Jagged\nor Delta (or L cells without ligand as a control) [45]. After 24\nhours, RNA from each well was prepared from cocultures, reverse\ntranscribed, and quantified by real time PCR using beta-actin as a\ncontrol. The average expression level for each group (n = 3 wells\nper co-culture; normalized to L cell controls) reflects target gene\nregulation by the Notch pathway. Finally, we determined the\naverage levels of gene induction for three independent experi-\nments. Primer sequences were designed to specifically measure\nA7R5 (rat) smooth muscle cDNA (and not mouse cDNA from\nligand producing L cells). Sequences of these primers were:\nSM22:5 9-AAGAATGGCGTGATTCTGAGC-3 959-CTGCCT-\nTCAAGAATTGAGCC-3 9. SMA: 5 9- CAGACACCAGGGAG-\nTGATGGT -3 959CTTTTCCATGTCGTCCCAGT -3 9. Calpo-\nnin: 59-CAGTCAGCAGGGCATGACAG-3 959-AGTCATGCCA-\nGCCTGGCTG-3 9. SM-MHC: 5 9- CCGGCAACGCTACGAGAT -\n3959- AGAAGATTTTGCTCTGCCCA -3 9.\nFor luciferase-based assays, H460 (that express only NOTCH3)\nor A7R5 cells (cells which express multiple Notch receptors) were\ntransiently transfected with an expression clone (vector or\nNOTCH3 construct) in combination with the HES-luciferase\nreporter that reflects canonical NOTCH pathway activation\n[39,46], smooth muscle actin-luciferase (a 2.5 kb promoter\nconstruct), SM22-luciferase [47], or smooth muscle myosin heavy\nchain-luciferase mixed with a renilla luciferase standard. In some\nexperiments, we applied recombinant, purified NOTCH3-Fc\n(1 ug/ml; 3 nM) or human IgG (control) protein to cocultures ofreporter-transfected A7R5 cells (without co-transfection of\nNOTCH3 cDNA) and ligand expressing cells. To generate a\nNotch-insensitive promoter control, we mutated the RBP site at\n2369 (from TTCCCAC to GATATCC; [48]) of the mouse\nSM22-luciferase reporter using PCR. The cells were allowed to\nrecover overnight to enhance expression of the constructs. The\nfollowing day, Notch was stimulated by overlaying Jagged1 or\nDelta1 expressing L cells (or parental L cells as a control) onto the\nNotch expressing monolayer [44,45]. After 18–24 hours, luciferase\nactivity was determined from cell lysates; the ratio of firefly to\nrenilla luciferase represented the activation of the Notch pathway\nin the transfected cell pool. Reporter studies were done in 48 well\nplates, and cells were transfected with 100 ng of reporter luciferase\nconstructs, 1 ng of renilla luciferase control plasmid, and 100 ng of\nexpression constructs (or vector control).\nRecombinant NOTCH3 Protein Purification\nCell lines were prepared that stably expressed human\nNOTCH3 cDNA (corresponding 1,040 amino acids encoding\nthe first 27 EGF-like repeats of NOTCH3; wild type or R90C\nmutant) fused to a myc tag and the Fc domain of murine IgG2 in\npSec-Tag (Invitrogen). High expressing clones were selected by\npuromycin selection and expanded. After expansion, media waschanged to OptiMEM (Invitrogen) overnight and this serum-free\nmedia was collected, frozen, pooled and passed over a protein A\nagarose column to affinity purify the recombinant NOTCH3fusion. Elution of the protein was performed at pH5.0, and the\neluate was immediately neutralized with Tris pH 7.4 and dialyzed\nagainst PBS. The final protein solution was composed of only twobands, a major band (NOTCH3-Fc at approximately 150 kDa)\nand a minor band at 25 kDa (about 20% of the total mass by silver\nstaining). Gel purification and mass spectroscopy of the minorband revealed it to be human IgG heavy chain made by 293 cell\nlines and which copurified with NOTCH3 proteins. To control for', 'staining). Gel purification and mass spectroscopy of the minorband revealed it to be human IgG heavy chain made by 293 cell\nlines and which copurified with NOTCH3 proteins. To control for\nthe IgG component of the protein preparation, all experimentscompared the NOTCH3-Fc protein with purified human IgG as acontrol.\nStatistical Analysis\nAll figures display means with standard deviations. Statistical\nanalysis was performed using ANOVA with appropriate post hoc\nanalysis and significance was assigned at p ,0.05.\nResults\nWe sought to answer four questions: 1) do wildtype or mutant\nNOTCH3 ectodomains physically interact with NOTCH1, 3, and4 ectodomains; 2) do mutations in NOTCH3 affect detergent\nsolubility; 3) do mutations in NOTCH3 impair protein clearance;\nand 4) does NOTCH3 overexpression affect Notch regulation ofsmooth muscle genes?\nNOTCH3 Homo- and Heteromeric Associations are\nMediated by the Extracellular Domain\nMany NOTCH protein partners contain EGF-like repeats in\ntheir extracellular domains, including ligands Jagged, Delta, the\nNotch signal modifier thrombospondin-2 (THBS2; TSP2) [42],and LRP1 [49]; NOTCH1 has been shown to interact with itself\n[50,51] and several mutants of NOTCH3 homodimerize [36,38].\nWe therefore used immunoprecipitation assays to test whetherNOTCH3 and additional mutants (the prototype R90C andC49Y) are capable of self-association through the EGF-repeat\ncontaining extracellular domain. 293A cells were cotransfected\nwith two epitope tagged NOTCH3-extracellular domain con-structs (depicted in Figure 1). In Figure 2A, we demonstrate that\nwildtype NOTCH3 ectodomain tagged with HA is capable of\ninteracting with WT and mutant NOTCH3 ectodomains, asassessed by coprecipitation of WT-HA protein with all three myc-\ntagged NOTCH3 ectodomains. Negative control transfections\n(e.g. WT-myc protein alone or WT-HA protein alone) did notyield coprecipitated proteins with the converse tag. Mixing of\nNOTCH3 proteins expressed separately did not result in\ncoprecipitated protein, indicating that interactions are favoredby co-expression of proteins within the same cell (not shown).\nSimilarly, in Figures 2B and 2C, we show that precipitation of\nmutant NOTCH3 proteins R90C and C49Y pulls down bothwildtype and mutant proteins. Quantification of band intensities of\nall immunoprecipitation experiments (repeated over 8 times)\ndemonstrated that there was no significant difference between thecoimmunoprecipitations of any NOTCH3 combination. Underidentical assay conditions, several additional proteins do not\ncoprecipitate with the NOTCH3 ectodomain (see Figure S1 for an\nexample).\nMultiple EGF-like repeats in NOTCH are predicted to bind\ncalcium [52]. Moreover, the addition of EDTA to cells expressingNOTCH proteins has been reported to stimulate proteolysis and\nrelease of the NOTCH3 extracellular domain, suggesting a\nconformational change resulting from calcium chelation [52].However, immunoprecipitations prepared and washed in bufferscontaining either calcium or magnesium showed no difference inCellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 3 September 2012 | Volume 7 | Issue 9 | e44964\nthe stability of NOTCH3 protein complexes (Figure 2D), regard-\nless of the presence of mutant NOTCH3 in complexes.\nNOTCH1 and NOTCH4 are also expressed in blood vessels\nand A7R5 smooth muscle cells [53,54,55,56] (data not shown).The ectodomains of these isoforms of NOTCH, like NOTCH3,are composed of a large number of EGF-like domain repeats. Incotransfection assays, we also found that wildtype and mutantNOTCH3 formed stable complexes with NOTCH1 andNOTCH4 ectodomains (Figure 3).\nCADASIL Mutations Decrease Solubility of NOTCH3 in\nCell Lines\nWe next assessed the solubility of full-length NOTCH3 wild', 'and D). FISH is conducted with LSI\nEGFR Spectrum Orange and CEP7\nSpectrum Green probes.\nMagni ﬁcation/Scale bar: 400x/50\nmicron (A and B), 1000x (C and D).EGFR in FDC Sarcoma\nwww.aacrjournals.org Clin Cancer Res; 19(18) September 15, 2013 5031Downloaded from http://aacrjournals.org/clincancerres/article-pdf/19/18/5027/2013501/5027.pdf by George Washington University user on 29 October 2024', 'But, it is difficult to compare this study to ours, since arteries of\nthese mice likely did not express levels of Notch3 that we were able\nto achieve in vitro. In addition, our studies using multiple\nindependent smooth muscle promoter luciferase reporters offer a\nnew opportunity to examine relevant smooth muscle targets with\nimproved quantitation compared to in vivo measurements in mice\nexpressing a chromogenic reporter, which could miss modest\nchanges in Notch activity.\nIn sum, the available data suggests that high levels of Notch3\nexpression in smooth muscle cells potently blocks Notch signaling.\nThe consequences of global Notch inhibition in smooth muscle\ncells could be functionally significant, since marked arterial\nchanges in mice with global smooth muscle Notch inhibition have\nbeen noted by Proweller [63]. These dominant negative effects\ncould be clinically important, since Monet-Lepretre et al. have\ndemonstrated that hypomorphic NOTCH3 mutations that lead to\nloss of NOTCH function result in more severe cerebral white\nmatter changes on MRI in CADASIL patients [61].Supporting Information\nFigure S1 Control experiments that demonstrate negative and\npositive interactions between NOTCH3 and fragments of theprotein TSP2. We show two examples of fragments of TSP2cotransfected with Notch3 and immunoprecipitated. (A) In thefirst pairwise interaction test, NOTCH3-HA and TSP2-myctagged proteins were produced in abundance, but did notcoprecipitate. (B) In the second pairwise interaction, anotherdomain of TSP2 was shown to interact with Notch3. These dataalso demonstrate that HA and myc tags do not mediate protein-protein interactions.\n(EPS)\nFigure S2 Full-length NOTCH3 expression does not inhibit\nNICD-driven HES-luciferase activity. H460 cells were co-transfected with (a) full-length NOTCH3 (or vector), (b) NICD3(or vector), and (c) HES-luciferase and Renilla-luciferase. After oneday, HES-luciferase activity from cells (normalized to Renillaactivity) was measured. Basal reporter levels were inhibited by allthree full-length NOTCH3 constructs. Constitutive activation ofthe reporter by NICD was not affected by WT or mutantNOTCH3. This suggests that overexpressed NOTCH3 reducesactivation of NOTCH3 signaling through ectodomain interac-tions, since NICD is missing the NOTCH3 ectodomain. *represents significant differences compared to N3-ICD groups.#represents significant differences between vector and NOTCH3\nexpressing cells (p ,0.05; without N3-ICD cotransfection). Error\nbars represent standard deviations.\n(EPS)\nFigure S3 Inhibition of Notch mediated transcription by\noverexpression of NOTCH3 ectodomain A7R5 cells werecotranfected with HES luciferase reporter and either vector orNOTCH3 ectodomain expression plasmids. After one day, cellswere cultured with L, Jagged1, or Delta1 expressing fibroblasts toassess activity resulting from Notch ligand stimulation. Luciferaseassays were performed after an additional 24 hours and werenormalized to co-transfected Renilla luciferase activity. All ligand-stimulated ectodomain groups exhibited significant inhibition ofluciferase activity relative to matched control transfected cells (*p,0.05). Error bars represent standard deviations.\n(EPS)\nAcknowledgments\nWe thank Dr. Jimo Borjigin for critique and critical reagents for this study.\nAuthor Contributions\nConceived and designed the experiments: HM XZ SJL MMW. Performed\nthe experiments: HM XZ GGY SJL. Analyzed the data: HM XZ MMW.Contributed reagents/materials/analysis tools: YEC IP. Wrote the paper:MMW.\nReferences\n1. Tournier-Lasserve E, Joutel A, Melki J, Weissenbach J, Lathrop GM, et al.\n(1993) Cerebral autosomal dominant arteriopathy with subcortical infarcts and\nleukoencephalopathy maps to chromosome 19q12. Nat Genet 3: 256–259.\n2. Chabriat H, Tournier-Lasserve E, Vahedi K, Leys D, Joutel A, et al. (1995)\nAutosomal dominant migraine with MRI white-matter abnormalities mappingto the CADASIL locus. Neurology 45: 1086–1091.', 'control; p ,0.05; the differences are not marked to simplify the presentation of data). Consistent and significant differences in Notch signaling were\nobserved after coexpression of wildtype or mutant NOTCH3 in for H460 cells transfected with HES-luciferase (A) and for A7R5 cells transfected with al l\nluciferase constructs except the mutant SM22 promoter. There were significant differences between the potency of inhibition of the mutant NOTCH3\nproteins in selected groups. Each experiment was conducted three or more times; in each experiment, triplicate wells were analyzed. * indicatesdifferences between NOTCH3 transfected cells versus control cells and #denotes differences between mutant NOTCH3 and wildtype NOTCH3\ntransfectants (p ,0.05). Error bars represent standard deviations.\ndoi:10.1371/journal.pone.0044964.g007\nFigure 8. Inhibition of Notch signaling by extracellular NOTCH3 ectodomain. As in Figure 7, A7R5 cells (n = 3 replicate wells per group)\ntransfected with HES-luciferase reporter (but not NOTCH3 cDNA) were cocultured with ligand producing or control cells. Experiments were\nperformed in the presence of 1 ug/ml (3 nM) recombinant NOTCH3-Fc protein (wildtype or R90C mutant ectodomains fused to Fc). Control studieswere done with no added protein and with purified human IgG to control for the presence of immunoglobulin in the NOTCH3-Fc preparation. *indicates differences between NOTCH3-Fc treated cells versus control cells (p ,0.05). Experiments were done three times with similar results.\ndoi:10.1371/journal.pone.0044964.g008Cellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 10 September 2012 | Volume 7 | Issue 9 | e44964\nsignaling assay, this could not be experimentally discerned.\nIndeed, recent studies of purified NOTCH3 ectodomains have\ndemonstrated that mutant (but not WT) NOTCH3 proteins\nspontaneously form very large aggregates [37]. It is thus likely,\nsince inhibition was seen with transfection of cDNA encoding the\nectodomain (Figure S3) or application of purified NOTCH3\nectodomain (Figure 8) that the inhibitory effects we observe are\ndue to competitive inhibition through ectodomain interactions.\nLastly, because the activation of the NOTCH pathway by\ntransfection of NICD from NOTCH3 was not affected by\nNOTCH3 overexpression, inhibition of Notch signaling most\nlikely requires ectodomain interactions.\nThus, these cell studies may be consistent the following\nsequence of events in CADASIL: 1) mutations in NOTCH3 lead\nto decreased solubility; 2) NOTCH3 accumulates; 3) NOTCH3\naccumulation leads to selective impairment of Notch signaling and\ngene activation. Since multiple Notch proteins are expressed in\nA7R5 cells, these studies also demonstrate that high levels of\nNOTCH3 likely inhibit multiple Notch isoforms.\nDominant negative effects of mutant NOTCH3 have been\ntested in only one other in vitro study, which failed to find\nsuppressive effects of the R90C and C428S NOTCH3 mutants incultured cells [8]. However, the C428S mutation, which causes\nimpaired interactions with ligands, was found later to have partial\ndominant negative function in mice [61]. It is possible that our\nobservations of signal inhibition were of greater magnitude\nbecause of differences in reagents and an experimental paradigm\nwhich favors detection of cross inhibitory complexes (longer\nexpression period and avoidance of trypsin with EDTA). Another\npotential explanation for the differences in our results is that\noverexpression systems were used in these studies which enable\nvery high levels of expression. Finally, our results differ in that\nadded NOTCH3 was used to assess function of endogenous\nNOTCH proteins expressed at physiological levels in cells.\nPrevious investigators also did not detect a dominant negative\neffect of mutant Notch in the R90C transgenic mouse model [60].\nBut, it is difficult to compare this study to ours, since arteries of\nthese mice likely did not express levels of Notch3 that we were able']</t>
+          <t>['ized to initial luciferase content (time 0). The decrease in luciferase\nactivity over time was used to determine the effects of NOTCH3\nmutations on clearance of NOTCH3 ectodomain.\nNotch Signaling Assays\nWe used a cell co-culture system that was similar to previous\nstudies [42,44]. For mRNA expression assays, we transfected\nA7R5 cells transfected (three wells per group) with NOTCH3\ncDNA constructs with ligand expressing L cells expressing Jagged\nor Delta (or L cells without ligand as a control) [45]. After 24\nhours, RNA from each well was prepared from cocultures, reverse\ntranscribed, and quantified by real time PCR using beta-actin as a\ncontrol. The average expression level for each group (n = 3 wells\nper co-culture; normalized to L cell controls) reflects target gene\nregulation by the Notch pathway. Finally, we determined the\naverage levels of gene induction for three independent experi-\nments. Primer sequences were designed to specifically measure\nA7R5 (rat) smooth muscle cDNA (and not mouse cDNA from\nligand producing L cells). Sequences of these primers were:\nSM22:5 9-AAGAATGGCGTGATTCTGAGC-3 959-CTGCCT-\nTCAAGAATTGAGCC-3 9. SMA: 5 9- CAGACACCAGGGAG-\nTGATGGT -3 959CTTTTCCATGTCGTCCCAGT -3 9. Calpo-\nnin: 59-CAGTCAGCAGGGCATGACAG-3 959-AGTCATGCCA-\nGCCTGGCTG-3 9. SM-MHC: 5 9- CCGGCAACGCTACGAGAT -\n3959- AGAAGATTTTGCTCTGCCCA -3 9.\nFor luciferase-based assays, H460 (that express only NOTCH3)\nor A7R5 cells (cells which express multiple Notch receptors) were\ntransiently transfected with an expression clone (vector or\nNOTCH3 construct) in combination with the HES-luciferase\nreporter that reflects canonical NOTCH pathway activation\n[39,46], smooth muscle actin-luciferase (a 2.5 kb promoter\nconstruct), SM22-luciferase [47], or smooth muscle myosin heavy\nchain-luciferase mixed with a renilla luciferase standard. In some\nexperiments, we applied recombinant, purified NOTCH3-Fc\n(1 ug/ml; 3 nM) or human IgG (control) protein to cocultures ofreporter-transfected A7R5 cells (without co-transfection of\nNOTCH3 cDNA) and ligand expressing cells. To generate a\nNotch-insensitive promoter control, we mutated the RBP site at\n2369 (from TTCCCAC to GATATCC; [48]) of the mouse\nSM22-luciferase reporter using PCR. The cells were allowed to\nrecover overnight to enhance expression of the constructs. The\nfollowing day, Notch was stimulated by overlaying Jagged1 or\nDelta1 expressing L cells (or parental L cells as a control) onto the\nNotch expressing monolayer [44,45]. After 18–24 hours, luciferase\nactivity was determined from cell lysates; the ratio of firefly to\nrenilla luciferase represented the activation of the Notch pathway\nin the transfected cell pool. Reporter studies were done in 48 well\nplates, and cells were transfected with 100 ng of reporter luciferase\nconstructs, 1 ng of renilla luciferase control plasmid, and 100 ng of\nexpression constructs (or vector control).\nRecombinant NOTCH3 Protein Purification\nCell lines were prepared that stably expressed human\nNOTCH3 cDNA (corresponding 1,040 amino acids encoding\nthe first 27 EGF-like repeats of NOTCH3; wild type or R90C\nmutant) fused to a myc tag and the Fc domain of murine IgG2 in\npSec-Tag (Invitrogen). High expressing clones were selected by\npuromycin selection and expanded. After expansion, media waschanged to OptiMEM (Invitrogen) overnight and this serum-free\nmedia was collected, frozen, pooled and passed over a protein A\nagarose column to affinity purify the recombinant NOTCH3fusion. Elution of the protein was performed at pH5.0, and the\neluate was immediately neutralized with Tris pH 7.4 and dialyzed\nagainst PBS. The final protein solution was composed of only twobands, a major band (NOTCH3-Fc at approximately 150 kDa)\nand a minor band at 25 kDa (about 20% of the total mass by silver\nstaining). Gel purification and mass spectroscopy of the minorband revealed it to be human IgG heavy chain made by 293 cell\nlines and which copurified with NOTCH3 proteins. To control for', 'staining). Gel purification and mass spectroscopy of the minorband revealed it to be human IgG heavy chain made by 293 cell\nlines and which copurified with NOTCH3 proteins. To control for\nthe IgG component of the protein preparation, all experimentscompared the NOTCH3-Fc protein with purified human IgG as acontrol.\nStatistical Analysis\nAll figures display means with standard deviations. Statistical\nanalysis was performed using ANOVA with appropriate post hoc\nanalysis and significance was assigned at p ,0.05.\nResults\nWe sought to answer four questions: 1) do wildtype or mutant\nNOTCH3 ectodomains physically interact with NOTCH1, 3, and4 ectodomains; 2) do mutations in NOTCH3 affect detergent\nsolubility; 3) do mutations in NOTCH3 impair protein clearance;\nand 4) does NOTCH3 overexpression affect Notch regulation ofsmooth muscle genes?\nNOTCH3 Homo- and Heteromeric Associations are\nMediated by the Extracellular Domain\nMany NOTCH protein partners contain EGF-like repeats in\ntheir extracellular domains, including ligands Jagged, Delta, the\nNotch signal modifier thrombospondin-2 (THBS2; TSP2) [42],and LRP1 [49]; NOTCH1 has been shown to interact with itself\n[50,51] and several mutants of NOTCH3 homodimerize [36,38].\nWe therefore used immunoprecipitation assays to test whetherNOTCH3 and additional mutants (the prototype R90C andC49Y) are capable of self-association through the EGF-repeat\ncontaining extracellular domain. 293A cells were cotransfected\nwith two epitope tagged NOTCH3-extracellular domain con-structs (depicted in Figure 1). In Figure 2A, we demonstrate that\nwildtype NOTCH3 ectodomain tagged with HA is capable of\ninteracting with WT and mutant NOTCH3 ectodomains, asassessed by coprecipitation of WT-HA protein with all three myc-\ntagged NOTCH3 ectodomains. Negative control transfections\n(e.g. WT-myc protein alone or WT-HA protein alone) did notyield coprecipitated proteins with the converse tag. Mixing of\nNOTCH3 proteins expressed separately did not result in\ncoprecipitated protein, indicating that interactions are favoredby co-expression of proteins within the same cell (not shown).\nSimilarly, in Figures 2B and 2C, we show that precipitation of\nmutant NOTCH3 proteins R90C and C49Y pulls down bothwildtype and mutant proteins. Quantification of band intensities of\nall immunoprecipitation experiments (repeated over 8 times)\ndemonstrated that there was no significant difference between thecoimmunoprecipitations of any NOTCH3 combination. Underidentical assay conditions, several additional proteins do not\ncoprecipitate with the NOTCH3 ectodomain (see Figure S1 for an\nexample).\nMultiple EGF-like repeats in NOTCH are predicted to bind\ncalcium [52]. Moreover, the addition of EDTA to cells expressingNOTCH proteins has been reported to stimulate proteolysis and\nrelease of the NOTCH3 extracellular domain, suggesting a\nconformational change resulting from calcium chelation [52].However, immunoprecipitations prepared and washed in bufferscontaining either calcium or magnesium showed no difference inCellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 3 September 2012 | Volume 7 | Issue 9 | e44964\nthe stability of NOTCH3 protein complexes (Figure 2D), regard-\nless of the presence of mutant NOTCH3 in complexes.\nNOTCH1 and NOTCH4 are also expressed in blood vessels\nand A7R5 smooth muscle cells [53,54,55,56] (data not shown).The ectodomains of these isoforms of NOTCH, like NOTCH3,are composed of a large number of EGF-like domain repeats. Incotransfection assays, we also found that wildtype and mutantNOTCH3 formed stable complexes with NOTCH1 andNOTCH4 ectodomains (Figure 3).\nCADASIL Mutations Decrease Solubility of NOTCH3 in\nCell Lines\nWe next assessed the solubility of full-length NOTCH3 wild', 'But, it is difficult to compare this study to ours, since arteries of\nthese mice likely did not express levels of Notch3 that we were able\nto achieve in vitro. In addition, our studies using multiple\nindependent smooth muscle promoter luciferase reporters offer a\nnew opportunity to examine relevant smooth muscle targets with\nimproved quantitation compared to in vivo measurements in mice\nexpressing a chromogenic reporter, which could miss modest\nchanges in Notch activity.\nIn sum, the available data suggests that high levels of Notch3\nexpression in smooth muscle cells potently blocks Notch signaling.\nThe consequences of global Notch inhibition in smooth muscle\ncells could be functionally significant, since marked arterial\nchanges in mice with global smooth muscle Notch inhibition have\nbeen noted by Proweller [63]. These dominant negative effects\ncould be clinically important, since Monet-Lepretre et al. have\ndemonstrated that hypomorphic NOTCH3 mutations that lead to\nloss of NOTCH function result in more severe cerebral white\nmatter changes on MRI in CADASIL patients [61].Supporting Information\nFigure S1 Control experiments that demonstrate negative and\npositive interactions between NOTCH3 and fragments of theprotein TSP2. We show two examples of fragments of TSP2cotransfected with Notch3 and immunoprecipitated. (A) In thefirst pairwise interaction test, NOTCH3-HA and TSP2-myctagged proteins were produced in abundance, but did notcoprecipitate. (B) In the second pairwise interaction, anotherdomain of TSP2 was shown to interact with Notch3. These dataalso demonstrate that HA and myc tags do not mediate protein-protein interactions.\n(EPS)\nFigure S2 Full-length NOTCH3 expression does not inhibit\nNICD-driven HES-luciferase activity. H460 cells were co-transfected with (a) full-length NOTCH3 (or vector), (b) NICD3(or vector), and (c) HES-luciferase and Renilla-luciferase. After oneday, HES-luciferase activity from cells (normalized to Renillaactivity) was measured. Basal reporter levels were inhibited by allthree full-length NOTCH3 constructs. Constitutive activation ofthe reporter by NICD was not affected by WT or mutantNOTCH3. This suggests that overexpressed NOTCH3 reducesactivation of NOTCH3 signaling through ectodomain interac-tions, since NICD is missing the NOTCH3 ectodomain. *represents significant differences compared to N3-ICD groups.#represents significant differences between vector and NOTCH3\nexpressing cells (p ,0.05; without N3-ICD cotransfection). Error\nbars represent standard deviations.\n(EPS)\nFigure S3 Inhibition of Notch mediated transcription by\noverexpression of NOTCH3 ectodomain A7R5 cells werecotranfected with HES luciferase reporter and either vector orNOTCH3 ectodomain expression plasmids. After one day, cellswere cultured with L, Jagged1, or Delta1 expressing fibroblasts toassess activity resulting from Notch ligand stimulation. Luciferaseassays were performed after an additional 24 hours and werenormalized to co-transfected Renilla luciferase activity. All ligand-stimulated ectodomain groups exhibited significant inhibition ofluciferase activity relative to matched control transfected cells (*p,0.05). Error bars represent standard deviations.\n(EPS)\nAcknowledgments\nWe thank Dr. Jimo Borjigin for critique and critical reagents for this study.\nAuthor Contributions\nConceived and designed the experiments: HM XZ SJL MMW. Performed\nthe experiments: HM XZ GGY SJL. Analyzed the data: HM XZ MMW.Contributed reagents/materials/analysis tools: YEC IP. Wrote the paper:MMW.\nReferences\n1. Tournier-Lasserve E, Joutel A, Melki J, Weissenbach J, Lathrop GM, et al.\n(1993) Cerebral autosomal dominant arteriopathy with subcortical infarcts and\nleukoencephalopathy maps to chromosome 19q12. Nat Genet 3: 256–259.\n2. Chabriat H, Tournier-Lasserve E, Vahedi K, Leys D, Joutel A, et al. (1995)\nAutosomal dominant migraine with MRI white-matter abnormalities mappingto the CADASIL locus. Neurology 45: 1086–1091.', 'control; p ,0.05; the differences are not marked to simplify the presentation of data). Consistent and significant differences in Notch signaling were\nobserved after coexpression of wildtype or mutant NOTCH3 in for H460 cells transfected with HES-luciferase (A) and for A7R5 cells transfected with al l\nluciferase constructs except the mutant SM22 promoter. There were significant differences between the potency of inhibition of the mutant NOTCH3\nproteins in selected groups. Each experiment was conducted three or more times; in each experiment, triplicate wells were analyzed. * indicatesdifferences between NOTCH3 transfected cells versus control cells and #denotes differences between mutant NOTCH3 and wildtype NOTCH3\ntransfectants (p ,0.05). Error bars represent standard deviations.\ndoi:10.1371/journal.pone.0044964.g007\nFigure 8. Inhibition of Notch signaling by extracellular NOTCH3 ectodomain. As in Figure 7, A7R5 cells (n = 3 replicate wells per group)\ntransfected with HES-luciferase reporter (but not NOTCH3 cDNA) were cocultured with ligand producing or control cells. Experiments were\nperformed in the presence of 1 ug/ml (3 nM) recombinant NOTCH3-Fc protein (wildtype or R90C mutant ectodomains fused to Fc). Control studieswere done with no added protein and with purified human IgG to control for the presence of immunoglobulin in the NOTCH3-Fc preparation. *indicates differences between NOTCH3-Fc treated cells versus control cells (p ,0.05). Experiments were done three times with similar results.\ndoi:10.1371/journal.pone.0044964.g008Cellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 10 September 2012 | Volume 7 | Issue 9 | e44964\nsignaling assay, this could not be experimentally discerned.\nIndeed, recent studies of purified NOTCH3 ectodomains have\ndemonstrated that mutant (but not WT) NOTCH3 proteins\nspontaneously form very large aggregates [37]. It is thus likely,\nsince inhibition was seen with transfection of cDNA encoding the\nectodomain (Figure S3) or application of purified NOTCH3\nectodomain (Figure 8) that the inhibitory effects we observe are\ndue to competitive inhibition through ectodomain interactions.\nLastly, because the activation of the NOTCH pathway by\ntransfection of NICD from NOTCH3 was not affected by\nNOTCH3 overexpression, inhibition of Notch signaling most\nlikely requires ectodomain interactions.\nThus, these cell studies may be consistent the following\nsequence of events in CADASIL: 1) mutations in NOTCH3 lead\nto decreased solubility; 2) NOTCH3 accumulates; 3) NOTCH3\naccumulation leads to selective impairment of Notch signaling and\ngene activation. Since multiple Notch proteins are expressed in\nA7R5 cells, these studies also demonstrate that high levels of\nNOTCH3 likely inhibit multiple Notch isoforms.\nDominant negative effects of mutant NOTCH3 have been\ntested in only one other in vitro study, which failed to find\nsuppressive effects of the R90C and C428S NOTCH3 mutants incultured cells [8]. However, the C428S mutation, which causes\nimpaired interactions with ligands, was found later to have partial\ndominant negative function in mice [61]. It is possible that our\nobservations of signal inhibition were of greater magnitude\nbecause of differences in reagents and an experimental paradigm\nwhich favors detection of cross inhibitory complexes (longer\nexpression period and avoidance of trypsin with EDTA). Another\npotential explanation for the differences in our results is that\noverexpression systems were used in these studies which enable\nvery high levels of expression. Finally, our results differ in that\nadded NOTCH3 was used to assess function of endogenous\nNOTCH proteins expressed at physiological levels in cells.\nPrevious investigators also did not detect a dominant negative\neffect of mutant Notch in the R90C transgenic mouse model [60].\nBut, it is difficult to compare this study to ours, since arteries of\nthese mice likely did not express levels of Notch3 that we were able', 'ectodomain of the Notch3 receptor accumulates within the cerebrovasculature\nof CADASIL patients. J Clin Invest 105: 597–605.\n21. Iso T, Hamamori Y, Kedes L (2003) Notch signaling in vascular development.\nArterioscler Thromb Vasc Biol 23: 543–553.\n22. Xue Y GX, Lindsell CE, Norton CR, Chang B, Hicks C, Gendron-Maguire M,\nRand EB, Weinmaster G, Gridley T (1999) Embryonic lethality and vascular\ndefects in mice lacking the Notch ligand Jagged1. Hum Mol Genet 1999: 723–\n730.\n23. Gale NW, Dominguez MG, Noguera I, Pan L, Hughes V, et al. (2004)\nHaploinsufficiency of delta-like 4 ligand results in embryonic lethality due tomajor defects in arterial and vascular development. Proc Natl Acad Sci U S A\n101: 15949–15954.\n24. Krebs LT, Xue Y, Norton CR, Shutter JR, Maguire M, et al. (2000) Notch\nsignaling is essential for vascular morphogenesis in mice. Genes Dev 14: 1343–\n1352.\n25. Limbourg FP, Takeshita K, Radtke F, Bronson RT, Chin MT, et al. (2005)\nEssential role of endothelial Notch1 in angiogenesis. Circulation 111: 1826–1832.\n26. McCright B, Gao X, Shen L, Lozier J, Lan Y, et al. (2001) Defects in\ndevelopment of the kidney, heart and eye vasculature in mice homozygous for a\nhypomorphic Notch2 mutation. Development 128: 491–502.\n27. Domenga V, Fardoux P, Lacombe P, Monet M, Maciazek J, et al. (2004) Notch3\nis required for arterial identity and maturation of vascular smooth muscle cells.\nGenes Dev 18: 2730–2735.\n28. High FA, Zhang M, Proweller A, Tu L, Parmacek MS, et al. (2007) An essential\nrole for Notch in neural crest during cardiovascular development and smooth\nmuscle differentiation. J Clin Invest 117: 353–363.\n29. Ridgway J, Zhang G, Wu Y, Stawicki S, Liang WC, et al. (2006) Inhibition of\nDll4 signalling inhibits tumour growth by deregulating angiogenesis. Nature 444:\n1083–1087.\n30. Hellstrom M, Phng LK, Hofmann JJ, Wallgard E, Coultas L, et al. (2007) Dll4\nsignalling through Notch1 regulates formation of tip cells during angiogenesis.Nature 445: 776–780.\n31. Noguera-Troise I, Daly C, Papadopoulos NJ, Coetzee S, Boland P, et al. (2006)\nBlockade of Dll4 inhibits tumour growth by promoting non-productive\nangiogenesis. Nature 444: 1032–1037.\n32. Lindner V, Booth C, Prudovsky I, Small D, Maciag T, et al. (2001) Members of\nthe Jagged/Notch gene families are expressed in injured arteries and regulate\ncell phenotype via alterations in cell matrix and cell-cell interaction. Am J Pathol159: 875–883.33. Sweeney C, Morrow D, Birney YA, Coyle S, Hennessy C, et al. (2004) Notch 1\nand 3 receptor signaling modulates vascular smooth muscle cell growth,\napoptosis, and migration via a CBF-1/RBP-Jk dependent pathway. Faseb J 18:1421–1423.\n34. Liu H, Kennard S, Lilly B (2009) NOTCH3 expression is induced in mural cells\nthrough an autoregulatory loop that requires endothelial-expressed JAGGED1.\nCirc Res 104: 466–475.\n35. Tang Y, Urs S, Boucher J, Bernaiche T, Venkatesh D, et al. (2010) Notch and\ntransforming growth factor-beta (TGFbeta) signaling pathways cooperatively\nregulate vascular smooth muscle cell differentiation. J Biol Chem 285: 17556–\n17563.\n36. Opherk C, Duering M, Peters N, Karpinska A, Rosner S, et al. (2009)\nCADASIL mutations enhance spontaneous multimerization of NOTCH3. Hum\nMol Genet 18: 2761–2767.\n37. Duering M, Karpinska A, Rosner S, Hopfner F, Zechmeister M, et al. (2011)\nCo-aggregate formation of CADASIL-mutant NOTCH3: a single-particleanalysis. Hum Mol Genet.\n38. Takahashi K, Adachi K, Yoshizaki K, Kunimoto S, Kalaria RN, et al. (2010)\nMutations in NOTCH3 cause the formation and retention of aggregates in theendoplasmic reticulum, leading to impaired cell proliferation. Hum Mol Genet\n19: 79–89.\n39. Zhang Y, Jia L, Lee SJ, Wang MM (2007) Conserved signal peptide of Notch3\ninhibits interaction with proteasome. Biochem Biophys Res Commun 355: 245–\n251.\n40. Jia L, Yu G, Zhang Y, Wang MM (2009) Lysosome-dependent degradation of\nNotch3. Int J Biochem Cell Biol 41: 2594–2598.']</t>
         </is>
       </c>
     </row>
@@ -893,8 +883,9 @@
         <is>
           <t>Based on the context provided, the following mitochondrial diseases have been attributed to POLG mutations:
 1. Progressive external ophthalmoplegia (PEO) - The passage states that "Autosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with multiple mitochondrial DNA deletions and can be caused by missense mutations in POLG".
-2. A condition resembling mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The passage describes patients with features of MNGIE who were found to have POLG mutations rather than the typical TP mutations associated with MNGIE. Specifically, it states "We report a recessive family with features of MNGIE but no leukoencephalopathy in which two patients carry three missense mutations in POLG".
-The passage indicates that POLG mutations can cause a broader clinical spectrum than previously thought, expanding to include gastrointestinal symptoms typically seen in MNGIE. However, it does not provide a comprehensive list of all mitochondrial diseases linked to POLG mutations. The focus is on PEO and MNGIE-like presentations being associated with POLG mutations.</t>
+2. A condition resembling mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The article reports on a family with features of MNGIE who were found to have POLG mutations rather than the typical TP mutations seen in MNGIE. 
+The passage indicates that POLG mutations can cause both autosomal dominant and recessive forms of PEO associated with multiple mtDNA deletions. It also expands the clinical spectrum of POLG mutations to include severe gastrointestinal features similar to those seen in MNGIE.
+The context does not provide information on other specific mitochondrial diseases linked to POLG mutations beyond these two conditions. More comprehensive information on the full spectrum of POLG-related disorders is not included in this limited excerpt.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -927,19 +918,20 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>Based on the information provided in the context, several miRNAs have been identified as potential biomarkers for epithelial ovarian cancer (EOC):
-1. miR-200 family members:
-- miR-200a
-- miR-200b  
-- miR-200c
-- miR-141
-These miRNAs were consistently reported to be upregulated in EOC in multiple studies. Specifically:
-- miR-200a, miR-200b, and miR-200c were found to be significantly higher in serum of EOC patients compared to healthy controls.
-- The combination of miR-200b + miR-200c normalized to serum volume and miR-103 was identified as the best predictive classifier of EOC.
-2. miR-152 - Found to be significantly decreased in ovarian cancer tissues compared to normal ovarian epithelium tissues.
-3. miR-21 - Significantly higher serum levels were found in EOC patients compared to healthy controls. Increased serum miR-21 was also correlated with advanced stage and poor prognosis.
-4. miR-182 - Highly overexpressed in EOC cell lines compared to normal ovarian surface epithelial cells.
-5. miR-100 - Reported to be downregulated in EOC in multiple studies.
-In summary, members of the miR-200 family (especially miR-200b and miR-200c), as well as miR-21, appear to be the most promising potential serum biomarkers for EOC based on the evidence presented. Further validation studies are needed to confirm their clinical utility.</t>
+1. miR-200 family members (miR-200a, miR-200b, miR-200c):
+- These were consistently upregulated in EOC tissues/cell lines compared to normal ovarian tissues in multiple studies.
+- Serum levels of miR-200a, miR-200b and miR-200c were significantly higher in EOC patients compared to healthy controls.
+- A combination of miR-200b + miR-200c normalized to serum volume and miR-103 was the best predictive classifier of EOC.
+2. miR-141:
+- Also part of the miR-200 family, it was consistently upregulated in EOC in multiple profiling studies.
+3. miR-100:
+- Consistently downregulated in EOC in multiple profiling studies.
+4. miR-21:
+- Serum levels were significantly higher in EOC patients compared to healthy controls.
+- Increased serum miR-21 correlated with advanced stage, high tumor grade, and shorter overall survival.
+5. miR-182:
+- Highly overexpressed in EOC cell lines compared to normal ovarian surface epithelial cells.
+These miRNAs, especially members of the miR-200 family, show promise as potential diagnostic and prognostic biomarkers for EOC. However, further validation in larger clinical studies is needed to confirm their utility.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
